--- a/user javara.xlsx
+++ b/user javara.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="246">
   <si>
     <t xml:space="preserve">External ID</t>
   </si>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">base.user_root</t>
   </si>
   <si>
-    <t xml:space="preserve">admin</t>
+    <t xml:space="preserve">odoo@javara.co.id</t>
   </si>
   <si>
     <t xml:space="preserve">Javara OdooAdmin</t>
@@ -326,9 +326,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yerti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">odoo@javara.co.id</t>
   </si>
   <si>
     <t xml:space="preserve">Access User Odoo</t>
@@ -774,7 +771,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* \-_-;_-@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -795,11 +792,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1064,7 +1056,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1073,231 +1065,227 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="7" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1381,7 +1369,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1615,7 +1603,7 @@
       <c r="A17" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="0" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="0" t="s">
@@ -1719,7 +1707,7 @@
       <c r="C24" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1790,17 +1778,17 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.92"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.02"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="0" t="str">
@@ -1809,10 +1797,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D2" s="0" t="str">
@@ -1821,10 +1809,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="0" t="str">
@@ -1833,10 +1821,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="0" t="str">
@@ -1845,10 +1833,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="0" t="str">
@@ -1857,10 +1845,10 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="0" t="str">
@@ -1869,10 +1857,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="0" t="str">
@@ -1881,10 +1869,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D8" s="0" t="str">
@@ -1893,10 +1881,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="0" t="str">
@@ -1905,10 +1893,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="0" t="str">
@@ -1917,10 +1905,10 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D11" s="0" t="str">
@@ -1929,10 +1917,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="0" t="str">
@@ -1941,10 +1929,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="0" t="str">
@@ -1953,22 +1941,22 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="0" t="e">
+      <c r="D14" s="0" t="str">
         <f aca="false">VLOOKUP(A14,'user javara'!$B$2:$C$27,2,0)</f>
-        <v>#N/A</v>
+        <v>Javara OdooAdmin</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="0" t="str">
@@ -1977,10 +1965,10 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>77</v>
       </c>
       <c r="D16" s="0" t="str">
@@ -1989,10 +1977,10 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D17" s="0" t="str">
@@ -2001,10 +1989,10 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>85</v>
       </c>
       <c r="D18" s="0" t="str">
@@ -2013,10 +2001,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>92</v>
       </c>
       <c r="D19" s="0" t="str">
@@ -2025,10 +2013,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D20" s="0" t="str">
@@ -2037,10 +2025,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D21" s="0" t="str">
@@ -2049,10 +2037,10 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="0" t="str">
@@ -2061,10 +2049,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>70</v>
       </c>
       <c r="D23" s="0" t="str">
@@ -2073,10 +2061,10 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>73</v>
       </c>
       <c r="D24" s="0" t="str">
@@ -2085,10 +2073,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>89</v>
       </c>
       <c r="D25" s="0" t="str">
@@ -2123,7 +2111,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.1"/>
@@ -2145,1797 +2133,1797 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-    </row>
-    <row r="3" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19" t="s">
+      <c r="B3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="D3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="24"/>
+    </row>
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="O4" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="T4" s="27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="P5" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="T5" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="M6" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="N6" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="O6" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="P6" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q6" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="S6" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="T6" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="33" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="T7" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="33" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="M8" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="R8" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="S8" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="33" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="M9" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="O9" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q9" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="S9" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="T9" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="33" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="N10" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="R10" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="S10" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="T10" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="33" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="S11" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="T11" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="33" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q12" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="S12" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="T12" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="33" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="N13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="R13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="S13" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="T13" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="33" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="37"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="33" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="N15" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q15" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="R15" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="S15" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="T15" s="30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="33" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="M16" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="O16" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q16" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="R16" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="S16" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="T16" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="33" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="K17" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="R17" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="S17" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="T17" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="33" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+    </row>
+    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="33" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="J19" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="M19" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="N19" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="R19" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="S19" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="T19" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="33" t="n">
+        <v>20</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="R20" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="S20" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="T20" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="33" t="n">
+        <v>21</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="R21" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="S21" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="T21" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="33" t="n">
+        <v>22</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="J22" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q22" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="R22" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="S22" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="T22" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="33" t="n">
+        <v>24</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="N23" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q23" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="R23" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="S23" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="T23" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="33" t="n">
+        <v>25</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="J24" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="M24" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="P24" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q24" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="R24" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="S24" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="T24" s="31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="43" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="J25" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="K25" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="M25" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="N25" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="O25" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="P25" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q25" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="R25" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="S25" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="T25" s="46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="48"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="51"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="52"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+    </row>
+    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="12"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="L28" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="M28" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="N28" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="O28" s="30"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="32"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="34"/>
+    </row>
+    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="33" t="n">
+        <v>18</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I29" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J29" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="K29" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="M29" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="N29" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="34"/>
+    </row>
+    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="33" t="n">
+        <v>19</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I30" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J30" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="M30" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="N30" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="34"/>
+    </row>
+    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="43" t="n">
+        <v>23</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="K31" s="56" t="s">
+        <v>120</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="N31" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="34"/>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="25"/>
-    </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="J4" s="28" t="s">
+      <c r="B36" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="L4" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="O4" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q4" s="28" t="s">
+      <c r="D36" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="57" t="n">
+        <v>3</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="R4" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="S4" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="T4" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="D37" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="57" t="n">
+        <v>4</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="O38" s="16"/>
+      <c r="P38" s="16"/>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="57" t="n">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="B39" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="57" t="n">
         <v>6</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="M5" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="O5" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="P5" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="R5" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="S5" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="T5" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="I6" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="J6" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="K6" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="L6" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="M6" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="N6" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="O6" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="P6" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q6" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="R6" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="S6" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="T6" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="L7" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="M7" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="N7" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="O7" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="P7" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q7" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="R7" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="S7" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="T7" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="J8" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="K8" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="L8" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="M8" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="N8" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="P8" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q8" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="R8" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="S8" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="T8" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="n">
+      <c r="B40" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="O40" s="16"/>
+      <c r="P40" s="16"/>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="57" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="M9" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="N9" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="O9" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="P9" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q9" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="R9" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="S9" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="T9" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="n">
+      <c r="B41" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="O41" s="16"/>
+      <c r="P41" s="16"/>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="57" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="J10" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="K10" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="M10" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="N10" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="O10" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="P10" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="R10" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="S10" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="T10" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="n">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="O42" s="16"/>
+      <c r="P42" s="16"/>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="57" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="M11" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="N11" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="P11" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q11" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="R11" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="S11" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="T11" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="L12" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="N12" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="O12" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="P12" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q12" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="R12" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="S12" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="T12" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="J13" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="N13" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="O13" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="P13" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q13" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="R13" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="S13" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="T13" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-    </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="I15" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="J15" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="K15" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="M15" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="N15" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="O15" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="P15" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q15" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="R15" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="S15" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="T15" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="M16" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="N16" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="O16" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="P16" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q16" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="R16" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="S16" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="T16" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="M17" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="N17" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="O17" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="P17" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q17" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="R17" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="S17" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="T17" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="L19" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="M19" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="N19" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="O19" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="P19" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q19" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="R19" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="S19" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="T19" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="23.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="n">
-        <v>20</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J20" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="K20" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="N20" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="O20" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="R20" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="S20" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="T20" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="n">
-        <v>21</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="I21" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J21" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="L21" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="M21" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="N21" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="O21" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="P21" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q21" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="R21" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="S21" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="T21" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="n">
-        <v>22</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J22" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="L22" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="M22" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="N22" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="O22" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="P22" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q22" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="R22" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="S22" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="T22" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="n">
-        <v>24</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="I23" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J23" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="L23" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="M23" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="N23" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="O23" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="P23" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q23" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="R23" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="S23" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="T23" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="n">
-        <v>25</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="I24" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="J24" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="L24" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="M24" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="N24" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="O24" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="P24" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q24" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="R24" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="S24" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="T24" s="32" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="44" t="n">
-        <v>26</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="J25" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="K25" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="L25" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="M25" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="N25" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="O25" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="P25" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q25" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="R25" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="S25" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="T25" s="47" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="17"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="51"/>
-      <c r="P26" s="51"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="53"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-    </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="54" t="n">
-        <v>3</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I28" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="J28" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="K28" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="L28" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="M28" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="N28" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="O28" s="31"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="35"/>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34" t="n">
-        <v>18</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I29" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="J29" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="K29" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="L29" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="M29" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="N29" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="35"/>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="34" t="n">
-        <v>19</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="48"/>
-      <c r="H30" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I30" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="J30" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="K30" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="L30" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="M30" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="N30" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="35"/>
-    </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="44" t="n">
-        <v>23</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="J31" s="35" t="s">
-        <v>121</v>
-      </c>
-      <c r="K31" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="L31" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="M31" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="N31" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="32"/>
-      <c r="T31" s="35"/>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="58" t="n">
-        <v>2</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="58" t="n">
-        <v>3</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="58" t="n">
-        <v>4</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="58" t="n">
-        <v>5</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="58" t="n">
-        <v>6</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="17"/>
-      <c r="M40" s="17"/>
-      <c r="O40" s="17"/>
-      <c r="P40" s="17"/>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="58" t="n">
-        <v>7</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="58" t="n">
-        <v>8</v>
-      </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="58" t="n">
-        <v>9</v>
-      </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4933,354 +4921,354 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>161</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>165</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>167</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B7" s="0" t="s">
         <v>171</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>173</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>177</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>181</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>183</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>185</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B17" s="0" t="s">
         <v>191</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>193</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>203</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>205</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>209</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>211</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>213</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>215</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B34" s="0" t="s">
         <v>225</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>227</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>229</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" s="0" t="s">
         <v>231</v>
-      </c>
-      <c r="B37" s="0" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="0" t="s">
         <v>233</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>235</v>
-      </c>
-      <c r="B39" s="0" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B40" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>239</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="0" t="s">
         <v>241</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>243</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>245</v>
-      </c>
-      <c r="B44" s="0" t="s">
-        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/user javara.xlsx
+++ b/user javara.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="user javara" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="user fix" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="original" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="groups" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="manual" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="252">
   <si>
     <t xml:space="preserve">External ID</t>
   </si>
@@ -761,6 +762,24 @@
   </si>
   <si>
     <t xml:space="preserve">Sales: Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daftar menu yang tidak ada external ID dan groupnya harus ditambahkan manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory/Configuration/Product Price History</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventory/Master Data/Stock Quants</t>
   </si>
 </sst>
 </file>
@@ -871,7 +890,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,8 +963,14 @@
         <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFADD58A"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1030,6 +1055,13 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1056,7 +1088,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1287,6 +1319,18 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1314,7 +1358,7 @@
       <rgbColor rgb="FF76923C"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFADD58A"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FFB2A1C7"/>
       <rgbColor rgb="FF993366"/>
@@ -1368,8 +1412,8 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1772,7 +1816,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5280,4 +5324,177 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:C21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="58" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>248</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="59" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="59" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="59" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="59" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="59" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="59" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="59" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" s="60"/>
+      <c r="C12" s="60"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="59" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="59" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="59" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="59" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="59" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="59" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="59" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="59" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="59" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/user javara.xlsx
+++ b/user javara.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="user javara" sheetId="1" state="visible" r:id="rId2"/>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">Adi Kristianto</t>
   </si>
   <si>
-    <t xml:space="preserve">Inventory: Batch Picking, Inventory: Configuration &gt; Location, Inventory: Dashboard, Inventory: Master Data, Inventory: Master Data &gt; Lots - Serial Numbers, Inventory: Operations, Inventory: Operations &gt; Inventory Adjustments, Inventory: Operations &gt; Scrap, Inventory: Reporting, Inventory: Reporting &gt; Inventory, Manufacturing: Configuration, Manufacturing: Master Data, Manufacturing: Operations, Manufacturing: Reporting, Sales: Catalog, Sales: Invoicing, Sales: Orders, Sales: Reporting, Sales: Target</t>
+    <t xml:space="preserve">Inventory: Batch Picking, Inventory: Configuration &gt; Location, Inventory: Dashboard, Inventory: Master Data, Inventory: Master Data &gt; Lots - Serial Numbers, Inventory: Operations, Inventory: Operations &gt; Inventory Adjustments, Inventory: Operations &gt; Scrap, Inventory: Reporting, Inventory: Reporting &gt; Inventory, Manufacturing: Configuration, Manufacturing: Master Data, Manufacturing: Operations, Manufacturing: Reporting, Purchases: Control, Purchases: Purchase, Purchases: Reporting, Sales: Catalog, Sales: Invoicing, Sales: Orders, Sales: Reporting, Sales: Target</t>
   </si>
   <si>
     <t xml:space="preserve">__export__.res_users_11</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">Dery (Sales Support Store)</t>
   </si>
   <si>
-    <t xml:space="preserve">Inventory: Batch Picking, Inventory: Configuration &gt; Location, Inventory: Dashboard, Inventory: Master Data, Inventory: Master Data &gt; Lots - Serial Numbers, Inventory: Operations, Inventory: Operations &gt; Scrap, Inventory: Reporting, Inventory: Reporting &gt; Inventory, POS: Reporting, Sales: Catalog, Sales: Invoicing, Sales: Orders, Sales: Reporting, Sales: Target</t>
+    <t xml:space="preserve">POS: Reporting, Sales: Catalog, Sales: Invoicing, Sales: Orders, Sales: Reporting, Sales: Target</t>
   </si>
   <si>
     <t xml:space="preserve">__export__.res_users_19</t>
@@ -1412,8 +1412,8 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4952,8 +4952,8 @@
   </sheetPr>
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B45" activeCellId="0" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5333,7 +5333,7 @@
   </sheetPr>
   <dimension ref="A2:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
